--- a/data/pca/factorExposure/factorExposure_2015-06-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02055464848013306</v>
+        <v>0.009098766965093345</v>
       </c>
       <c r="C2">
-        <v>-0.0241736456690213</v>
+        <v>-0.05250023907966708</v>
       </c>
       <c r="D2">
-        <v>-0.1206079787934077</v>
+        <v>-0.1379774443702814</v>
       </c>
       <c r="E2">
-        <v>0.004145983680344459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.00823761911644812</v>
+      </c>
+      <c r="F2">
+        <v>-0.01540079968242925</v>
+      </c>
+      <c r="G2">
+        <v>0.120133991675176</v>
+      </c>
+      <c r="H2">
+        <v>0.06878457109665033</v>
+      </c>
+      <c r="I2">
+        <v>0.02186753517715289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.0008118281395316333</v>
+        <v>-0.003105280923359818</v>
       </c>
       <c r="C3">
-        <v>-0.01087403241049953</v>
+        <v>-0.006754296677162426</v>
       </c>
       <c r="D3">
-        <v>-0.01384479812951625</v>
+        <v>-0.01130717482320752</v>
       </c>
       <c r="E3">
-        <v>-0.01144682041304936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.01655894764138429</v>
+      </c>
+      <c r="F3">
+        <v>0.0007301670298590114</v>
+      </c>
+      <c r="G3">
+        <v>0.01111078025996876</v>
+      </c>
+      <c r="H3">
+        <v>0.005673119045093364</v>
+      </c>
+      <c r="I3">
+        <v>-0.02415093826699518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0461775300000546</v>
+        <v>0.01901212669831819</v>
       </c>
       <c r="C4">
-        <v>-0.06819440530651788</v>
+        <v>-0.09982731233275725</v>
       </c>
       <c r="D4">
-        <v>-0.1310646221072203</v>
+        <v>-0.135860288960645</v>
       </c>
       <c r="E4">
-        <v>-0.07367493806049627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01606185362063741</v>
+      </c>
+      <c r="F4">
+        <v>-0.08724735270410768</v>
+      </c>
+      <c r="G4">
+        <v>0.01040626205220043</v>
+      </c>
+      <c r="H4">
+        <v>0.0435563710129808</v>
+      </c>
+      <c r="I4">
+        <v>0.03919611909151623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02512640251277065</v>
+        <v>0.0271497713336877</v>
       </c>
       <c r="C6">
-        <v>-0.01336125475288437</v>
+        <v>-0.03110275803029068</v>
       </c>
       <c r="D6">
-        <v>-0.1419098631825469</v>
+        <v>-0.1279996621900375</v>
       </c>
       <c r="E6">
-        <v>-0.03033351711106975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.04506640956455156</v>
+      </c>
+      <c r="F6">
+        <v>-0.05491344672337229</v>
+      </c>
+      <c r="G6">
+        <v>0.01109116562580047</v>
+      </c>
+      <c r="H6">
+        <v>0.06937446245563889</v>
+      </c>
+      <c r="I6">
+        <v>-0.02821153379573865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.007900166792871545</v>
+        <v>0.009173158835780114</v>
       </c>
       <c r="C7">
-        <v>-0.02302820956566185</v>
+        <v>-0.03327554874538129</v>
       </c>
       <c r="D7">
-        <v>-0.1138612588060866</v>
+        <v>-0.1015314142770048</v>
       </c>
       <c r="E7">
-        <v>0.004882797322152416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05016415695275302</v>
+      </c>
+      <c r="F7">
+        <v>-0.008485456828964308</v>
+      </c>
+      <c r="G7">
+        <v>-0.009332529498587412</v>
+      </c>
+      <c r="H7">
+        <v>0.07488850244375908</v>
+      </c>
+      <c r="I7">
+        <v>-0.02067745504860881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.0007563099926148025</v>
+        <v>-0.01142794463733858</v>
       </c>
       <c r="C8">
-        <v>-0.02701003104691833</v>
+        <v>-0.03262070386654711</v>
       </c>
       <c r="D8">
-        <v>-0.08486427575478561</v>
+        <v>-0.07980235860673648</v>
       </c>
       <c r="E8">
-        <v>-0.02011710677656766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01927172682558032</v>
+      </c>
+      <c r="F8">
+        <v>-0.04435050328605126</v>
+      </c>
+      <c r="G8">
+        <v>0.0678508038596035</v>
+      </c>
+      <c r="H8">
+        <v>0.01107890492719814</v>
+      </c>
+      <c r="I8">
+        <v>-0.045043910047204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03994598948289653</v>
+        <v>0.01426258423066962</v>
       </c>
       <c r="C9">
-        <v>-0.05875142714619917</v>
+        <v>-0.08402696277373503</v>
       </c>
       <c r="D9">
-        <v>-0.1330281944472099</v>
+        <v>-0.1188529766767479</v>
       </c>
       <c r="E9">
-        <v>-0.05718024920265478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.006346011586938206</v>
+      </c>
+      <c r="F9">
+        <v>-0.05734316344251104</v>
+      </c>
+      <c r="G9">
+        <v>-0.01191001244208658</v>
+      </c>
+      <c r="H9">
+        <v>0.05903705801491057</v>
+      </c>
+      <c r="I9">
+        <v>0.007780210650352188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1542487604867241</v>
+        <v>0.2318840036702788</v>
       </c>
       <c r="C10">
-        <v>0.1801354287513571</v>
+        <v>0.1024526366976845</v>
       </c>
       <c r="D10">
-        <v>-0.009498373550629321</v>
+        <v>0.00445247469426567</v>
       </c>
       <c r="E10">
-        <v>-0.04483230103832609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02739762769370421</v>
+      </c>
+      <c r="F10">
+        <v>-0.03907289575569481</v>
+      </c>
+      <c r="G10">
+        <v>0.003738199918181949</v>
+      </c>
+      <c r="H10">
+        <v>-0.06830683078304002</v>
+      </c>
+      <c r="I10">
+        <v>-0.1168870378747003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02275276360229507</v>
+        <v>0.009653756308078498</v>
       </c>
       <c r="C11">
-        <v>-0.03991479962347449</v>
+        <v>-0.0530893992224488</v>
       </c>
       <c r="D11">
-        <v>-0.05163743534663253</v>
+        <v>-0.04426010098871777</v>
       </c>
       <c r="E11">
-        <v>0.01719876654264364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01982681155813494</v>
+      </c>
+      <c r="F11">
+        <v>0.01115702370378357</v>
+      </c>
+      <c r="G11">
+        <v>-0.00409555099773966</v>
+      </c>
+      <c r="H11">
+        <v>0.05232776250781557</v>
+      </c>
+      <c r="I11">
+        <v>0.04086845550429984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02490644675871545</v>
+        <v>0.01073080319394836</v>
       </c>
       <c r="C12">
-        <v>-0.04037868559853772</v>
+        <v>-0.05017295035073781</v>
       </c>
       <c r="D12">
-        <v>-0.06613333413164459</v>
+        <v>-0.05032125168813584</v>
       </c>
       <c r="E12">
-        <v>0.008640620123298814</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01943311947218861</v>
+      </c>
+      <c r="F12">
+        <v>0.01731085574202137</v>
+      </c>
+      <c r="G12">
+        <v>-0.02700956831725853</v>
+      </c>
+      <c r="H12">
+        <v>0.07295722179675408</v>
+      </c>
+      <c r="I12">
+        <v>0.02508209197695614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.007093801336145379</v>
+        <v>-0.001114618867908709</v>
       </c>
       <c r="C13">
-        <v>-0.02500663214429304</v>
+        <v>-0.0441523378069133</v>
       </c>
       <c r="D13">
-        <v>-0.1544769734670847</v>
+        <v>-0.1519876738104823</v>
       </c>
       <c r="E13">
-        <v>-0.02729039580358985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0377718970611959</v>
+      </c>
+      <c r="F13">
+        <v>-0.03590048228217241</v>
+      </c>
+      <c r="G13">
+        <v>0.02940771473902952</v>
+      </c>
+      <c r="H13">
+        <v>0.08454083597388246</v>
+      </c>
+      <c r="I13">
+        <v>-0.09865439969825601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.001832028532687618</v>
+        <v>-0.0007734992847751318</v>
       </c>
       <c r="C14">
-        <v>-0.01956848931690896</v>
+        <v>-0.02838332936964035</v>
       </c>
       <c r="D14">
-        <v>-0.1052461152715492</v>
+        <v>-0.1062262837493404</v>
       </c>
       <c r="E14">
-        <v>-0.004204376327163437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.02987181596111768</v>
+      </c>
+      <c r="F14">
+        <v>-0.02590874844440167</v>
+      </c>
+      <c r="G14">
+        <v>0.007886293309911916</v>
+      </c>
+      <c r="H14">
+        <v>0.1300074844837166</v>
+      </c>
+      <c r="I14">
+        <v>-0.01349051664705262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001077058915752976</v>
+        <v>-0.001228435279340745</v>
       </c>
       <c r="C15">
-        <v>-0.01046420418271177</v>
+        <v>-0.01946948063600314</v>
       </c>
       <c r="D15">
-        <v>-0.02729038070846956</v>
+        <v>-0.05383036405426209</v>
       </c>
       <c r="E15">
-        <v>0.005303324692710333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.005848575240255134</v>
+      </c>
+      <c r="F15">
+        <v>-0.003984115819849757</v>
+      </c>
+      <c r="G15">
+        <v>0.02159746335511493</v>
+      </c>
+      <c r="H15">
+        <v>0.02469591988075448</v>
+      </c>
+      <c r="I15">
+        <v>0.01940884670636677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02299502805355591</v>
+        <v>0.01039847790269183</v>
       </c>
       <c r="C16">
-        <v>-0.03802628836504575</v>
+        <v>-0.04864981339206999</v>
       </c>
       <c r="D16">
-        <v>-0.05868032379937919</v>
+        <v>-0.04591862712030429</v>
       </c>
       <c r="E16">
-        <v>0.01117517620492586</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02136265928983192</v>
+      </c>
+      <c r="F16">
+        <v>0.007872681350151687</v>
+      </c>
+      <c r="G16">
+        <v>-0.0163817230459147</v>
+      </c>
+      <c r="H16">
+        <v>0.05629906513576183</v>
+      </c>
+      <c r="I16">
+        <v>0.03748146501968633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.007263212532012174</v>
+        <v>0.0007225265204258072</v>
       </c>
       <c r="C19">
-        <v>-0.02083397941036039</v>
+        <v>-0.01994599979887334</v>
       </c>
       <c r="D19">
-        <v>-0.114005243257664</v>
+        <v>-0.07118590362545746</v>
       </c>
       <c r="E19">
-        <v>-0.0385386362965636</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.0209843614596605</v>
+      </c>
+      <c r="F19">
+        <v>-0.007361982561139632</v>
+      </c>
+      <c r="G19">
+        <v>0.01151915028521968</v>
+      </c>
+      <c r="H19">
+        <v>0.06697080969393762</v>
+      </c>
+      <c r="I19">
+        <v>-0.04929415650196975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.005953765847781884</v>
+        <v>0.003918544158483992</v>
       </c>
       <c r="C20">
-        <v>-0.02509890465629864</v>
+        <v>-0.03800868479159374</v>
       </c>
       <c r="D20">
-        <v>-0.09198035010601432</v>
+        <v>-0.09606746123096077</v>
       </c>
       <c r="E20">
-        <v>-0.02989699628966001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.007583868685962984</v>
+      </c>
+      <c r="F20">
+        <v>-0.02696935838579833</v>
+      </c>
+      <c r="G20">
+        <v>-0.002423021837113615</v>
+      </c>
+      <c r="H20">
+        <v>0.05825199673108743</v>
+      </c>
+      <c r="I20">
+        <v>0.001469597702166369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.009597675946311123</v>
+        <v>0.002968206803781023</v>
       </c>
       <c r="C21">
-        <v>-0.03016390542309316</v>
+        <v>-0.04205677500472187</v>
       </c>
       <c r="D21">
-        <v>-0.1701402179455467</v>
+        <v>-0.1355863277685973</v>
       </c>
       <c r="E21">
-        <v>-0.06378061472727817</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0001141021992066379</v>
+      </c>
+      <c r="F21">
+        <v>-0.07199137702730544</v>
+      </c>
+      <c r="G21">
+        <v>0.007049938257191034</v>
+      </c>
+      <c r="H21">
+        <v>0.1821407103303332</v>
+      </c>
+      <c r="I21">
+        <v>-0.1181524024027157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.003167366061776372</v>
+        <v>-0.01040930508778583</v>
       </c>
       <c r="C22">
-        <v>-0.06075923298652912</v>
+        <v>-0.08220540695251233</v>
       </c>
       <c r="D22">
-        <v>-0.2232346057369348</v>
+        <v>-0.2621225080649283</v>
       </c>
       <c r="E22">
-        <v>0.0404876283684912</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.05154437712277895</v>
+      </c>
+      <c r="F22">
+        <v>-0.03301148167928972</v>
+      </c>
+      <c r="G22">
+        <v>0.3568891258307395</v>
+      </c>
+      <c r="H22">
+        <v>-0.3847285497286907</v>
+      </c>
+      <c r="I22">
+        <v>0.1300358538461716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003436935705690258</v>
+        <v>-0.009960025374361147</v>
       </c>
       <c r="C23">
-        <v>-0.06123348016445929</v>
+        <v>-0.08318452947204356</v>
       </c>
       <c r="D23">
-        <v>-0.222796865187004</v>
+        <v>-0.2627411207987574</v>
       </c>
       <c r="E23">
-        <v>0.04031466639879333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04841074326773121</v>
+      </c>
+      <c r="F23">
+        <v>-0.03234228699856156</v>
+      </c>
+      <c r="G23">
+        <v>0.3557503858914411</v>
+      </c>
+      <c r="H23">
+        <v>-0.3851973483615032</v>
+      </c>
+      <c r="I23">
+        <v>0.1318845017094215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02963160184068456</v>
+        <v>0.00958847499229986</v>
       </c>
       <c r="C24">
-        <v>-0.05626432711675661</v>
+        <v>-0.06588867912235344</v>
       </c>
       <c r="D24">
-        <v>-0.0711163411561077</v>
+        <v>-0.05358295217719834</v>
       </c>
       <c r="E24">
-        <v>0.007821305701835835</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02543441579847882</v>
+      </c>
+      <c r="F24">
+        <v>0.005891110681309724</v>
+      </c>
+      <c r="G24">
+        <v>-0.00986187803190185</v>
+      </c>
+      <c r="H24">
+        <v>0.08062235794605491</v>
+      </c>
+      <c r="I24">
+        <v>0.03634922595274209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03139898066709618</v>
+        <v>0.01348436220219524</v>
       </c>
       <c r="C25">
-        <v>-0.04748705427048042</v>
+        <v>-0.06141006908090727</v>
       </c>
       <c r="D25">
-        <v>-0.06528520746676113</v>
+        <v>-0.05252727626035547</v>
       </c>
       <c r="E25">
-        <v>0.002683656750329935</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01239010853559648</v>
+      </c>
+      <c r="F25">
+        <v>0.007803286796962799</v>
+      </c>
+      <c r="G25">
+        <v>-0.0149605883916734</v>
+      </c>
+      <c r="H25">
+        <v>0.0484064098177501</v>
+      </c>
+      <c r="I25">
+        <v>0.02510683972524888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009951589502055014</v>
+        <v>0.006914027186659805</v>
       </c>
       <c r="C26">
-        <v>-0.01430130115448775</v>
+        <v>-0.02491683884726809</v>
       </c>
       <c r="D26">
-        <v>-0.08133921846986601</v>
+        <v>-0.0691409036534322</v>
       </c>
       <c r="E26">
-        <v>-0.01430637992430495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02608427999911404</v>
+      </c>
+      <c r="F26">
+        <v>-0.02262559080122319</v>
+      </c>
+      <c r="G26">
+        <v>-0.009192643708095317</v>
+      </c>
+      <c r="H26">
+        <v>0.08499531170484174</v>
+      </c>
+      <c r="I26">
+        <v>-0.05041542482109782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2373216378790518</v>
+        <v>0.3181271465260541</v>
       </c>
       <c r="C28">
-        <v>0.2230329347231412</v>
+        <v>0.1045883048327797</v>
       </c>
       <c r="D28">
-        <v>-0.01981400880602598</v>
+        <v>0.008656025082961699</v>
       </c>
       <c r="E28">
-        <v>-0.06563502601464224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05664400758832262</v>
+      </c>
+      <c r="F28">
+        <v>-0.0350943430953503</v>
+      </c>
+      <c r="G28">
+        <v>0.02007081718357619</v>
+      </c>
+      <c r="H28">
+        <v>-0.01525354639245965</v>
+      </c>
+      <c r="I28">
+        <v>-0.1480539706456414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001614791051891679</v>
+        <v>-0.002064863269026094</v>
       </c>
       <c r="C29">
-        <v>-0.02250474477957555</v>
+        <v>-0.03111933125596076</v>
       </c>
       <c r="D29">
-        <v>-0.1010666203152702</v>
+        <v>-0.101947331185689</v>
       </c>
       <c r="E29">
-        <v>-0.008929179489643656</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.03917220101049968</v>
+      </c>
+      <c r="F29">
+        <v>-0.03399272230998199</v>
+      </c>
+      <c r="G29">
+        <v>-0.002394624138816777</v>
+      </c>
+      <c r="H29">
+        <v>0.1375385633246484</v>
+      </c>
+      <c r="I29">
+        <v>-0.01551387475975785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02818558976856237</v>
+        <v>0.0153512768884342</v>
       </c>
       <c r="C30">
-        <v>-0.05828277349772076</v>
+        <v>-0.08486783839924891</v>
       </c>
       <c r="D30">
-        <v>-0.167577416354436</v>
+        <v>-0.1615810807553368</v>
       </c>
       <c r="E30">
-        <v>-0.01555592123963089</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03875918165164022</v>
+      </c>
+      <c r="F30">
+        <v>-0.0371851082589408</v>
+      </c>
+      <c r="G30">
+        <v>0.03411339014732913</v>
+      </c>
+      <c r="H30">
+        <v>0.06172873685291986</v>
+      </c>
+      <c r="I30">
+        <v>0.06267164057944555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04796146943451782</v>
+        <v>0.01083489631969986</v>
       </c>
       <c r="C31">
-        <v>-0.08318709740743663</v>
+        <v>-0.09256490522540042</v>
       </c>
       <c r="D31">
-        <v>-0.07246545667565284</v>
+        <v>-0.04170166180581812</v>
       </c>
       <c r="E31">
-        <v>-0.008668184988692339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008880727025471843</v>
+      </c>
+      <c r="F31">
+        <v>-0.01105789015123586</v>
+      </c>
+      <c r="G31">
+        <v>0.002002528214846209</v>
+      </c>
+      <c r="H31">
+        <v>0.04775880424585272</v>
+      </c>
+      <c r="I31">
+        <v>-0.07429155084214706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02263987625531891</v>
+        <v>0.01126481405219321</v>
       </c>
       <c r="C32">
-        <v>-0.03131106075997323</v>
+        <v>-0.04428495282764516</v>
       </c>
       <c r="D32">
-        <v>-0.1101446173124666</v>
+        <v>-0.1115563165365122</v>
       </c>
       <c r="E32">
-        <v>-0.06282368789453552</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.005040121260146242</v>
+      </c>
+      <c r="F32">
+        <v>-0.04699270779824693</v>
+      </c>
+      <c r="G32">
+        <v>0.02560985038218225</v>
+      </c>
+      <c r="H32">
+        <v>0.04507447092118907</v>
+      </c>
+      <c r="I32">
+        <v>-0.08286484813317996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01622008443382811</v>
+        <v>0.006698822361987954</v>
       </c>
       <c r="C33">
-        <v>-0.04191929941484374</v>
+        <v>-0.05704230811543306</v>
       </c>
       <c r="D33">
-        <v>-0.1490703291111986</v>
+        <v>-0.1268499014579793</v>
       </c>
       <c r="E33">
-        <v>-0.03228472568198476</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.0157806844342996</v>
+      </c>
+      <c r="F33">
+        <v>-0.02651060978099666</v>
+      </c>
+      <c r="G33">
+        <v>0.003894658125837542</v>
+      </c>
+      <c r="H33">
+        <v>0.07298891881559885</v>
+      </c>
+      <c r="I33">
+        <v>-0.02079268294756917</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02687957121303396</v>
+        <v>0.006907718386771163</v>
       </c>
       <c r="C34">
-        <v>-0.05830059750057807</v>
+        <v>-0.0629247642463116</v>
       </c>
       <c r="D34">
-        <v>-0.05194042444822082</v>
+        <v>-0.03208465680931843</v>
       </c>
       <c r="E34">
-        <v>0.04890099743621068</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02998448482987487</v>
+      </c>
+      <c r="F34">
+        <v>0.03569469741705744</v>
+      </c>
+      <c r="G34">
+        <v>-0.009053152904257192</v>
+      </c>
+      <c r="H34">
+        <v>0.06393371824313962</v>
+      </c>
+      <c r="I34">
+        <v>0.01319958652085111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001441705698959848</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.00613754579613584</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.02766533449945625</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.003896183178831267</v>
+      </c>
+      <c r="F35">
+        <v>-0.01093023465396392</v>
+      </c>
+      <c r="G35">
+        <v>0.003889300377414258</v>
+      </c>
+      <c r="H35">
+        <v>0.03519103841295942</v>
+      </c>
+      <c r="I35">
+        <v>0.01065989930767167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.009990847867820311</v>
+        <v>0.006204817551729837</v>
       </c>
       <c r="C36">
-        <v>-0.006500110450380575</v>
+        <v>-0.02022838981563701</v>
       </c>
       <c r="D36">
-        <v>-0.09381323455571909</v>
+        <v>-0.07738744667556069</v>
       </c>
       <c r="E36">
-        <v>-0.03884232202501137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.005813143505830263</v>
+      </c>
+      <c r="F36">
+        <v>-0.03629346529143288</v>
+      </c>
+      <c r="G36">
+        <v>-0.0005370922340529593</v>
+      </c>
+      <c r="H36">
+        <v>0.06566557148957057</v>
+      </c>
+      <c r="I36">
+        <v>-0.03595508554736744</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.007786524537217748</v>
+        <v>0.01295339173063545</v>
       </c>
       <c r="C38">
-        <v>-0.006500313814439124</v>
+        <v>-0.01608719145654683</v>
       </c>
       <c r="D38">
-        <v>-0.08994465826700941</v>
+        <v>-0.08462966077140936</v>
       </c>
       <c r="E38">
-        <v>-0.007277648782502555</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.009902979306280328</v>
+      </c>
+      <c r="F38">
+        <v>0.008318483836586886</v>
+      </c>
+      <c r="G38">
+        <v>0.01672603561719732</v>
+      </c>
+      <c r="H38">
+        <v>0.05612310611546001</v>
+      </c>
+      <c r="I38">
+        <v>-0.03622629319198983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0228637024643142</v>
+        <v>0.005314135225648794</v>
       </c>
       <c r="C39">
-        <v>-0.05668485054221345</v>
+        <v>-0.07532310289353739</v>
       </c>
       <c r="D39">
-        <v>-0.1178403062616498</v>
+        <v>-0.1053038310582917</v>
       </c>
       <c r="E39">
-        <v>0.02306247770599709</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04788999330748247</v>
+      </c>
+      <c r="F39">
+        <v>0.003153563914923945</v>
+      </c>
+      <c r="G39">
+        <v>-0.01202723647054538</v>
+      </c>
+      <c r="H39">
+        <v>0.1069125566811582</v>
+      </c>
+      <c r="I39">
+        <v>0.07081514705028381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01256625218713453</v>
+        <v>0.01089620292970015</v>
       </c>
       <c r="C40">
-        <v>-0.01625623848222603</v>
+        <v>-0.02534750291571925</v>
       </c>
       <c r="D40">
-        <v>-0.1184692643104166</v>
+        <v>-0.0971674908249464</v>
       </c>
       <c r="E40">
-        <v>0.02470067942106664</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04239630755243989</v>
+      </c>
+      <c r="F40">
+        <v>0.02163669929222231</v>
+      </c>
+      <c r="G40">
+        <v>0.06477345406113505</v>
+      </c>
+      <c r="H40">
+        <v>0.07956694466401468</v>
+      </c>
+      <c r="I40">
+        <v>-0.06522044579730236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01325880342726214</v>
+        <v>0.01326293719401658</v>
       </c>
       <c r="C41">
-        <v>-0.00665997262647876</v>
+        <v>-0.01580282741002759</v>
       </c>
       <c r="D41">
-        <v>-0.05888998350460184</v>
+        <v>-0.04218244959348442</v>
       </c>
       <c r="E41">
-        <v>-0.02967443454895567</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02063141703416267</v>
+      </c>
+      <c r="F41">
+        <v>-0.01577173319959427</v>
+      </c>
+      <c r="G41">
+        <v>0.009863334497028595</v>
+      </c>
+      <c r="H41">
+        <v>0.04434839636757295</v>
+      </c>
+      <c r="I41">
+        <v>-0.04980064911544806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007766804517754171</v>
+        <v>0.007103533296158046</v>
       </c>
       <c r="C43">
-        <v>-0.007419591098604968</v>
+        <v>-0.01488029239724359</v>
       </c>
       <c r="D43">
-        <v>-0.06957965507033551</v>
+        <v>-0.05141522292722105</v>
       </c>
       <c r="E43">
-        <v>-0.01803865023644113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.003855842821774951</v>
+      </c>
+      <c r="F43">
+        <v>-0.01367464911818123</v>
+      </c>
+      <c r="G43">
+        <v>0.01039247965528691</v>
+      </c>
+      <c r="H43">
+        <v>0.06327361928198548</v>
+      </c>
+      <c r="I43">
+        <v>-0.03529434356616756</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01830163824147513</v>
+        <v>0.009661347907357534</v>
       </c>
       <c r="C44">
-        <v>-0.02477467124421</v>
+        <v>-0.04547469751669808</v>
       </c>
       <c r="D44">
-        <v>-0.1140580367084811</v>
+        <v>-0.1171528873933953</v>
       </c>
       <c r="E44">
-        <v>-0.04035999176735657</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01979878438927295</v>
+      </c>
+      <c r="F44">
+        <v>-0.02811646752771919</v>
+      </c>
+      <c r="G44">
+        <v>0.02048326459534818</v>
+      </c>
+      <c r="H44">
+        <v>0.05052636142397161</v>
+      </c>
+      <c r="I44">
+        <v>0.05822673349467298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.009689847730485859</v>
+        <v>-0.000837046063340551</v>
       </c>
       <c r="C46">
-        <v>-0.02827988465123667</v>
+        <v>-0.03931232672395551</v>
       </c>
       <c r="D46">
-        <v>-0.09742640857799374</v>
+        <v>-0.08531802928827921</v>
       </c>
       <c r="E46">
-        <v>-0.01686372299818149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02516626288791011</v>
+      </c>
+      <c r="F46">
+        <v>-0.02949573713571921</v>
+      </c>
+      <c r="G46">
+        <v>0.01148118343718823</v>
+      </c>
+      <c r="H46">
+        <v>0.144478116121548</v>
+      </c>
+      <c r="I46">
+        <v>-0.02025941941734958</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08974098438652391</v>
+        <v>0.03576349631191549</v>
       </c>
       <c r="C47">
-        <v>-0.1012052808995896</v>
+        <v>-0.1239176902825948</v>
       </c>
       <c r="D47">
-        <v>-0.06101345055205302</v>
+        <v>-0.0231468920106601</v>
       </c>
       <c r="E47">
-        <v>-0.02384176290183432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02005737983419707</v>
+      </c>
+      <c r="F47">
+        <v>0.01541697963184711</v>
+      </c>
+      <c r="G47">
+        <v>-0.05190283285749212</v>
+      </c>
+      <c r="H47">
+        <v>0.03622001350074979</v>
+      </c>
+      <c r="I47">
+        <v>-0.1408520926003294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008537380298372092</v>
+        <v>0.005180856604119002</v>
       </c>
       <c r="C48">
-        <v>-0.01568364278343184</v>
+        <v>-0.02812817497470214</v>
       </c>
       <c r="D48">
-        <v>-0.09737011374462501</v>
+        <v>-0.08120493475193277</v>
       </c>
       <c r="E48">
-        <v>-0.05320786736550186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004315679832892387</v>
+      </c>
+      <c r="F48">
+        <v>-0.03929090506649014</v>
+      </c>
+      <c r="G48">
+        <v>0.002612348586837527</v>
+      </c>
+      <c r="H48">
+        <v>0.09650119850211646</v>
+      </c>
+      <c r="I48">
+        <v>-0.02416166144998073</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0444898457509346</v>
+        <v>0.0136202568076815</v>
       </c>
       <c r="C50">
-        <v>-0.0599935237776506</v>
+        <v>-0.07453605851813391</v>
       </c>
       <c r="D50">
-        <v>-0.07158505180025551</v>
+        <v>-0.04670566217235268</v>
       </c>
       <c r="E50">
-        <v>-0.006071204105824447</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.001474600556329066</v>
+      </c>
+      <c r="F50">
+        <v>-0.005853318831599613</v>
+      </c>
+      <c r="G50">
+        <v>0.02158153175703034</v>
+      </c>
+      <c r="H50">
+        <v>0.03591854359960554</v>
+      </c>
+      <c r="I50">
+        <v>-0.1265508402651119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.003871843331964289</v>
+        <v>0.001285092440263474</v>
       </c>
       <c r="C51">
-        <v>-0.004125884748841281</v>
+        <v>-0.01623941926842824</v>
       </c>
       <c r="D51">
-        <v>-0.05927126116521114</v>
+        <v>-0.06523770207558838</v>
       </c>
       <c r="E51">
-        <v>-0.002084403621777547</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03520162306227895</v>
+      </c>
+      <c r="F51">
+        <v>-0.03859108748403887</v>
+      </c>
+      <c r="G51">
+        <v>0.03545683196185714</v>
+      </c>
+      <c r="H51">
+        <v>0.04996013763034884</v>
+      </c>
+      <c r="I51">
+        <v>-0.01526962075073492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1165617971480831</v>
+        <v>0.06056110818523015</v>
       </c>
       <c r="C53">
-        <v>-0.1162632556022226</v>
+        <v>-0.1564838710361562</v>
       </c>
       <c r="D53">
-        <v>-0.01997239601679787</v>
+        <v>0.01459088906396938</v>
       </c>
       <c r="E53">
-        <v>-0.05449426840711943</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03353224961349995</v>
+      </c>
+      <c r="F53">
+        <v>-0.04451886504322218</v>
+      </c>
+      <c r="G53">
+        <v>0.005152087022082741</v>
+      </c>
+      <c r="H53">
+        <v>0.002310712909967071</v>
+      </c>
+      <c r="I53">
+        <v>-0.08460885212443305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01819956457022309</v>
+        <v>0.01126847620018024</v>
       </c>
       <c r="C54">
-        <v>-0.02269436528688456</v>
+        <v>-0.04075519671885093</v>
       </c>
       <c r="D54">
-        <v>-0.1053905403442679</v>
+        <v>-0.08573514496107708</v>
       </c>
       <c r="E54">
-        <v>0.002563426880675799</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01229616563289664</v>
+      </c>
+      <c r="F54">
+        <v>0.002112711437024589</v>
+      </c>
+      <c r="G54">
+        <v>0.02302006169066885</v>
+      </c>
+      <c r="H54">
+        <v>0.09975942084160953</v>
+      </c>
+      <c r="I54">
+        <v>-0.04869579078274502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1029937969672948</v>
+        <v>0.04618888662636166</v>
       </c>
       <c r="C55">
-        <v>-0.09847649845450875</v>
+        <v>-0.1290822982835331</v>
       </c>
       <c r="D55">
-        <v>-0.009062791398178824</v>
+        <v>0.02621202491863522</v>
       </c>
       <c r="E55">
-        <v>-0.012510687459728</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.001196514379348595</v>
+      </c>
+      <c r="F55">
+        <v>-0.01211584286476882</v>
+      </c>
+      <c r="G55">
+        <v>0.01450864131669245</v>
+      </c>
+      <c r="H55">
+        <v>0.0106540156873435</v>
+      </c>
+      <c r="I55">
+        <v>-0.08860721144638135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1436322983824392</v>
+        <v>0.06465087848979593</v>
       </c>
       <c r="C56">
-        <v>-0.1315102345269576</v>
+        <v>-0.1877422077791778</v>
       </c>
       <c r="D56">
-        <v>-0.007091426746820483</v>
+        <v>0.02360115481707726</v>
       </c>
       <c r="E56">
-        <v>-0.01314569885326484</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03346559782770436</v>
+      </c>
+      <c r="F56">
+        <v>-0.01198880535160116</v>
+      </c>
+      <c r="G56">
+        <v>0.06209809234468244</v>
+      </c>
+      <c r="H56">
+        <v>0.002503925104280123</v>
+      </c>
+      <c r="I56">
+        <v>-0.1093360185892332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.00147147586995424</v>
+        <v>0.004856193000198451</v>
       </c>
       <c r="C58">
-        <v>-0.01252833535427018</v>
+        <v>-0.04874760934371575</v>
       </c>
       <c r="D58">
-        <v>-0.2260791561170844</v>
+        <v>-0.2854353920437672</v>
       </c>
       <c r="E58">
-        <v>-0.07142068970575045</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02338324053892273</v>
+      </c>
+      <c r="F58">
+        <v>-0.09498805692443893</v>
+      </c>
+      <c r="G58">
+        <v>0.1279218398458148</v>
+      </c>
+      <c r="H58">
+        <v>-0.09465253130647137</v>
+      </c>
+      <c r="I58">
+        <v>0.0603002943299932</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.165530897414105</v>
+        <v>0.2456372115049871</v>
       </c>
       <c r="C59">
-        <v>0.1597939526509513</v>
+        <v>0.07138708364936872</v>
       </c>
       <c r="D59">
-        <v>-0.04914470271809028</v>
+        <v>-0.05902117556922735</v>
       </c>
       <c r="E59">
-        <v>-0.03713092686077731</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03532383007006593</v>
+      </c>
+      <c r="F59">
+        <v>-0.0141437151742913</v>
+      </c>
+      <c r="G59">
+        <v>0.00219364027511265</v>
+      </c>
+      <c r="H59">
+        <v>-0.01230488664321379</v>
+      </c>
+      <c r="I59">
+        <v>-0.04337608029724875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1978190824967081</v>
+        <v>0.1542558474665833</v>
       </c>
       <c r="C60">
-        <v>-0.08578322413302496</v>
+        <v>-0.1682185285783034</v>
       </c>
       <c r="D60">
-        <v>-0.1575975377158333</v>
+        <v>-0.08333206218434337</v>
       </c>
       <c r="E60">
-        <v>0.1906796261181876</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2316637422590855</v>
+      </c>
+      <c r="F60">
+        <v>0.1578801958586802</v>
+      </c>
+      <c r="G60">
+        <v>-0.2239794697423716</v>
+      </c>
+      <c r="H60">
+        <v>-0.2218844677142768</v>
+      </c>
+      <c r="I60">
+        <v>0.0306117773962587</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03327024789326924</v>
+        <v>0.0136581974525823</v>
       </c>
       <c r="C61">
-        <v>-0.0527965405811974</v>
+        <v>-0.07201183345722396</v>
       </c>
       <c r="D61">
-        <v>-0.1070433026458811</v>
+        <v>-0.08364317892466858</v>
       </c>
       <c r="E61">
-        <v>0.01087769232328686</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03670777543357709</v>
+      </c>
+      <c r="F61">
+        <v>0.01366638072879166</v>
+      </c>
+      <c r="G61">
+        <v>-0.02797315531966153</v>
+      </c>
+      <c r="H61">
+        <v>0.09669724755535555</v>
+      </c>
+      <c r="I61">
+        <v>0.02252009318428235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01025272936237535</v>
+        <v>0.002637364212426954</v>
       </c>
       <c r="C63">
-        <v>-0.02610874058176013</v>
+        <v>-0.03620770999758204</v>
       </c>
       <c r="D63">
-        <v>-0.09298259827912696</v>
+        <v>-0.07120940411735839</v>
       </c>
       <c r="E63">
-        <v>-0.01030164329260209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02874176950186124</v>
+      </c>
+      <c r="F63">
+        <v>-0.02198837911985639</v>
+      </c>
+      <c r="G63">
+        <v>0.007300654351506394</v>
+      </c>
+      <c r="H63">
+        <v>0.06642595425560338</v>
+      </c>
+      <c r="I63">
+        <v>-0.006093094774530297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06592037636975429</v>
+        <v>0.02279400716166193</v>
       </c>
       <c r="C64">
-        <v>-0.07793330122327731</v>
+        <v>-0.1037222539477011</v>
       </c>
       <c r="D64">
-        <v>-0.03758221560202514</v>
+        <v>-0.02491067507819333</v>
       </c>
       <c r="E64">
-        <v>-0.01957899720773579</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02652738933693142</v>
+      </c>
+      <c r="F64">
+        <v>-0.02238298498929325</v>
+      </c>
+      <c r="G64">
+        <v>-0.05338312832972927</v>
+      </c>
+      <c r="H64">
+        <v>0.1066099385713638</v>
+      </c>
+      <c r="I64">
+        <v>0.06812557737152079</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02671545562105038</v>
+        <v>0.02129230314707904</v>
       </c>
       <c r="C65">
-        <v>-0.01601437536040899</v>
+        <v>-0.03953032136197243</v>
       </c>
       <c r="D65">
-        <v>-0.118079290891117</v>
+        <v>-0.1186464523601521</v>
       </c>
       <c r="E65">
-        <v>0.0009941051909670663</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04505322398926435</v>
+      </c>
+      <c r="F65">
+        <v>-0.00967050773881804</v>
+      </c>
+      <c r="G65">
+        <v>-0.01527696213907728</v>
+      </c>
+      <c r="H65">
+        <v>0.05180188745593727</v>
+      </c>
+      <c r="I65">
+        <v>-0.008010351700272674</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02576970217207944</v>
+        <v>0.003632334703548346</v>
       </c>
       <c r="C66">
-        <v>-0.06391541294102498</v>
+        <v>-0.09013661977346951</v>
       </c>
       <c r="D66">
-        <v>-0.1221353645958829</v>
+        <v>-0.1287136177862089</v>
       </c>
       <c r="E66">
-        <v>0.02557290439277896</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03429930807709341</v>
+      </c>
+      <c r="F66">
+        <v>0.01130613905892375</v>
+      </c>
+      <c r="G66">
+        <v>0.004928443955585917</v>
+      </c>
+      <c r="H66">
+        <v>0.06180459691718886</v>
+      </c>
+      <c r="I66">
+        <v>0.07602624575522623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02783431196747432</v>
+        <v>0.02398528355896746</v>
       </c>
       <c r="C67">
-        <v>-0.01755106775020602</v>
+        <v>-0.02821799419199101</v>
       </c>
       <c r="D67">
-        <v>-0.04471713897671026</v>
+        <v>-0.03511405120938803</v>
       </c>
       <c r="E67">
-        <v>0.01674478214411027</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.005455849948859967</v>
+      </c>
+      <c r="F67">
+        <v>0.0301425903258805</v>
+      </c>
+      <c r="G67">
+        <v>0.004742594456502516</v>
+      </c>
+      <c r="H67">
+        <v>0.06368137039992569</v>
+      </c>
+      <c r="I67">
+        <v>-0.02408143370673458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1911356289588929</v>
+        <v>0.2688480433117721</v>
       </c>
       <c r="C68">
-        <v>0.1747916168019423</v>
+        <v>0.07258129070221495</v>
       </c>
       <c r="D68">
-        <v>-0.03023745798120797</v>
+        <v>-0.03347489615198943</v>
       </c>
       <c r="E68">
-        <v>-0.008791974621248495</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.005361918640907493</v>
+      </c>
+      <c r="F68">
+        <v>-0.02866810401671269</v>
+      </c>
+      <c r="G68">
+        <v>0.06524592040678265</v>
+      </c>
+      <c r="H68">
+        <v>-0.03767496243910295</v>
+      </c>
+      <c r="I68">
+        <v>-0.0992531600165609</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06823371205291368</v>
+        <v>0.02179618153938947</v>
       </c>
       <c r="C69">
-        <v>-0.1130442490873063</v>
+        <v>-0.1197675519871683</v>
       </c>
       <c r="D69">
-        <v>-0.08317403469813926</v>
+        <v>-0.03641388768083705</v>
       </c>
       <c r="E69">
-        <v>-0.009085335575285016</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.002875422631486042</v>
+      </c>
+      <c r="F69">
+        <v>0.0168186869241241</v>
+      </c>
+      <c r="G69">
+        <v>-0.0368876814207658</v>
+      </c>
+      <c r="H69">
+        <v>0.03383998321869772</v>
+      </c>
+      <c r="I69">
+        <v>-0.09422380968864191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.1974367680603978</v>
+        <v>0.2700096227973017</v>
       </c>
       <c r="C71">
-        <v>0.1945178433100243</v>
+        <v>0.08801641470694686</v>
       </c>
       <c r="D71">
-        <v>-0.02568142233561062</v>
+        <v>-0.02159637383213267</v>
       </c>
       <c r="E71">
-        <v>-0.01183390455296906</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.008397074970177257</v>
+      </c>
+      <c r="F71">
+        <v>-0.01322249858418314</v>
+      </c>
+      <c r="G71">
+        <v>0.03470174149192939</v>
+      </c>
+      <c r="H71">
+        <v>0.01743253032855223</v>
+      </c>
+      <c r="I71">
+        <v>-0.1655986854834237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1124676372808417</v>
+        <v>0.05992668796192567</v>
       </c>
       <c r="C72">
-        <v>-0.06484775971529953</v>
+        <v>-0.1208588107686915</v>
       </c>
       <c r="D72">
-        <v>-0.0947101326134859</v>
+        <v>-0.0604181530559999</v>
       </c>
       <c r="E72">
-        <v>0.05453612297300385</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08566483288947371</v>
+      </c>
+      <c r="F72">
+        <v>0.01404945873409242</v>
+      </c>
+      <c r="G72">
+        <v>-0.02360342072276806</v>
+      </c>
+      <c r="H72">
+        <v>0.05193390675126257</v>
+      </c>
+      <c r="I72">
+        <v>0.05307401193061897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1836488671982584</v>
+        <v>0.1395409735243681</v>
       </c>
       <c r="C73">
-        <v>-0.05079580252504356</v>
+        <v>-0.1413767929293287</v>
       </c>
       <c r="D73">
-        <v>-0.2257903767319662</v>
+        <v>-0.09600554136500503</v>
       </c>
       <c r="E73">
-        <v>0.2825952788548022</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3800121632853436</v>
+      </c>
+      <c r="F73">
+        <v>0.2414892774792576</v>
+      </c>
+      <c r="G73">
+        <v>-0.4247608050870406</v>
+      </c>
+      <c r="H73">
+        <v>-0.1725676852913676</v>
+      </c>
+      <c r="I73">
+        <v>0.07907193734117501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1156170923758236</v>
+        <v>0.05443452197604244</v>
       </c>
       <c r="C74">
-        <v>-0.1077416813329844</v>
+        <v>-0.1472599435644879</v>
       </c>
       <c r="D74">
-        <v>0.02032416008972218</v>
+        <v>0.03987967015947081</v>
       </c>
       <c r="E74">
-        <v>-0.04133591558400005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01033611852668176</v>
+      </c>
+      <c r="F74">
+        <v>-0.03905299593829712</v>
+      </c>
+      <c r="G74">
+        <v>0.005420538408778224</v>
+      </c>
+      <c r="H74">
+        <v>-0.009651098018706764</v>
+      </c>
+      <c r="I74">
+        <v>-0.1122650449047507</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.248398121359718</v>
+        <v>0.1201575781265485</v>
       </c>
       <c r="C75">
-        <v>-0.1816201707955035</v>
+        <v>-0.2684626345210466</v>
       </c>
       <c r="D75">
-        <v>0.1040260447468103</v>
+        <v>0.1316783969674486</v>
       </c>
       <c r="E75">
-        <v>0.00639942355906577</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09106329214370289</v>
+      </c>
+      <c r="F75">
+        <v>0.03888789747179842</v>
+      </c>
+      <c r="G75">
+        <v>0.104223400836924</v>
+      </c>
+      <c r="H75">
+        <v>0.007535750428740205</v>
+      </c>
+      <c r="I75">
+        <v>-0.08589969667600211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1507215678017656</v>
+        <v>0.0697542690187454</v>
       </c>
       <c r="C76">
-        <v>-0.1279967486182298</v>
+        <v>-0.1823338520372173</v>
       </c>
       <c r="D76">
-        <v>-0.024471885580476</v>
+        <v>0.02822203079552764</v>
       </c>
       <c r="E76">
-        <v>-0.01433938884455119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02662567498510562</v>
+      </c>
+      <c r="F76">
+        <v>-0.003284708384432742</v>
+      </c>
+      <c r="G76">
+        <v>0.04693474727262924</v>
+      </c>
+      <c r="H76">
+        <v>0.03787277096842485</v>
+      </c>
+      <c r="I76">
+        <v>-0.1146295154154324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01628901529823863</v>
+        <v>0.02461783986916931</v>
       </c>
       <c r="C77">
-        <v>-0.07605204059304327</v>
+        <v>-0.09440034412066174</v>
       </c>
       <c r="D77">
-        <v>-0.07992347500653167</v>
+        <v>-0.2750361568687695</v>
       </c>
       <c r="E77">
-        <v>-0.2265781882339834</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7634571090356452</v>
+      </c>
+      <c r="F77">
+        <v>0.324802669872611</v>
+      </c>
+      <c r="G77">
+        <v>-0.2819385618619596</v>
+      </c>
+      <c r="H77">
+        <v>-0.2412320905814032</v>
+      </c>
+      <c r="I77">
+        <v>-0.02921066684201231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03106615720405489</v>
+        <v>0.01511594971716537</v>
       </c>
       <c r="C78">
-        <v>-0.06500566379574353</v>
+        <v>-0.08516075875062612</v>
       </c>
       <c r="D78">
-        <v>-0.1546367101903318</v>
+        <v>-0.134915585525494</v>
       </c>
       <c r="E78">
-        <v>-0.03806829285694959</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04747790710816392</v>
+      </c>
+      <c r="F78">
+        <v>-0.04802644720381229</v>
+      </c>
+      <c r="G78">
+        <v>0.03158756739522887</v>
+      </c>
+      <c r="H78">
+        <v>0.01721749244560997</v>
+      </c>
+      <c r="I78">
+        <v>-0.07080184745850543</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1005584084869009</v>
+        <v>0.03688428910327454</v>
       </c>
       <c r="C79">
-        <v>-0.1604042407480473</v>
+        <v>-0.1835630065696869</v>
       </c>
       <c r="D79">
-        <v>0.09088108542157679</v>
+        <v>0.07302724141468368</v>
       </c>
       <c r="E79">
-        <v>-0.7938092361928458</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1238664064634897</v>
+      </c>
+      <c r="F79">
+        <v>-0.8089650685208016</v>
+      </c>
+      <c r="G79">
+        <v>-0.3783249510781177</v>
+      </c>
+      <c r="H79">
+        <v>-0.2284285643132426</v>
+      </c>
+      <c r="I79">
+        <v>0.1495192562455552</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007762600790011465</v>
+        <v>0.0004925184527440896</v>
       </c>
       <c r="C80">
-        <v>-0.04577394065479876</v>
+        <v>-0.04622747165934781</v>
       </c>
       <c r="D80">
-        <v>-0.04568983543589493</v>
+        <v>-0.04259372484014511</v>
       </c>
       <c r="E80">
-        <v>0.007535454546537133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02488935623703058</v>
+      </c>
+      <c r="F80">
+        <v>-0.00757642618238877</v>
+      </c>
+      <c r="G80">
+        <v>0.02568137089688657</v>
+      </c>
+      <c r="H80">
+        <v>0.01575026324929459</v>
+      </c>
+      <c r="I80">
+        <v>-0.05811088415940476</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1275185896530644</v>
+        <v>0.04894087173422785</v>
       </c>
       <c r="C81">
-        <v>-0.1247702218236577</v>
+        <v>-0.1653152408811136</v>
       </c>
       <c r="D81">
-        <v>0.06546071193794666</v>
+        <v>0.07786093238801466</v>
       </c>
       <c r="E81">
-        <v>-0.0701204751198764</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.07222298746550343</v>
+      </c>
+      <c r="F81">
+        <v>-0.04332450404190785</v>
+      </c>
+      <c r="G81">
+        <v>0.04655118867014842</v>
+      </c>
+      <c r="H81">
+        <v>0.06499510687281666</v>
+      </c>
+      <c r="I81">
+        <v>-0.1354676695331004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.271877512449984</v>
+        <v>0.105709806414335</v>
       </c>
       <c r="C82">
-        <v>-0.2755937240484019</v>
+        <v>-0.3281514608011032</v>
       </c>
       <c r="D82">
-        <v>0.2060608864397699</v>
+        <v>0.2257535354465362</v>
       </c>
       <c r="E82">
-        <v>0.1157374930705867</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.04648946271876481</v>
+      </c>
+      <c r="F82">
+        <v>0.1299251339615002</v>
+      </c>
+      <c r="G82">
+        <v>0.0711339549555105</v>
+      </c>
+      <c r="H82">
+        <v>0.09559620942453841</v>
+      </c>
+      <c r="I82">
+        <v>-0.03926413395131832</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.00279473324046391</v>
+        <v>-0.01290567922944371</v>
       </c>
       <c r="C83">
-        <v>-0.05251973950384957</v>
+        <v>-0.03477510622846378</v>
       </c>
       <c r="D83">
-        <v>-0.01598090928411654</v>
+        <v>-0.03693475640490786</v>
       </c>
       <c r="E83">
-        <v>-0.05617057225479326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09080422933417477</v>
+      </c>
+      <c r="F83">
+        <v>-0.02436860611245586</v>
+      </c>
+      <c r="G83">
+        <v>0.03344457874767453</v>
+      </c>
+      <c r="H83">
+        <v>0.0001653158872300393</v>
+      </c>
+      <c r="I83">
+        <v>-0.141028814702694</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0009887950076518785</v>
+        <v>-0.001833772317905464</v>
       </c>
       <c r="C84">
-        <v>0.001922906151293513</v>
+        <v>-0.01615107832276617</v>
       </c>
       <c r="D84">
-        <v>-0.004210835845126014</v>
+        <v>-0.04241131125421391</v>
       </c>
       <c r="E84">
-        <v>-0.000588178617917334</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01020665783925204</v>
+      </c>
+      <c r="F84">
+        <v>-0.01830362130148607</v>
+      </c>
+      <c r="G84">
+        <v>0.05084100786012394</v>
+      </c>
+      <c r="H84">
+        <v>0.005560035547148531</v>
+      </c>
+      <c r="I84">
+        <v>0.03316302848703694</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1515389754973373</v>
+        <v>0.06430886882549484</v>
       </c>
       <c r="C85">
-        <v>-0.1297569085706409</v>
+        <v>-0.1837172589413832</v>
       </c>
       <c r="D85">
-        <v>0.0413799069166394</v>
+        <v>0.0890454418472492</v>
       </c>
       <c r="E85">
-        <v>-0.02794279895161175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.002299293859275821</v>
+      </c>
+      <c r="F85">
+        <v>-0.07721268710669467</v>
+      </c>
+      <c r="G85">
+        <v>0.03266252350601719</v>
+      </c>
+      <c r="H85">
+        <v>0.007066552657036968</v>
+      </c>
+      <c r="I85">
+        <v>-0.09343765120026483</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01398201514411838</v>
+        <v>0.010949166459481</v>
       </c>
       <c r="C86">
-        <v>-0.01214097213860577</v>
+        <v>-0.03013440932335381</v>
       </c>
       <c r="D86">
-        <v>-0.08421984408599398</v>
+        <v>-0.1068948446530023</v>
       </c>
       <c r="E86">
-        <v>-0.04787040361917097</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04110749542744965</v>
+      </c>
+      <c r="F86">
+        <v>0.01433669820227162</v>
+      </c>
+      <c r="G86">
+        <v>-0.02544868328815475</v>
+      </c>
+      <c r="H86">
+        <v>0.002903962733289609</v>
+      </c>
+      <c r="I86">
+        <v>-0.09255436699726409</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01664654140341998</v>
+        <v>0.009544028459526181</v>
       </c>
       <c r="C87">
-        <v>-0.02724903573216047</v>
+        <v>-0.05497656593961225</v>
       </c>
       <c r="D87">
-        <v>-0.1331054857902298</v>
+        <v>-0.1443119209409524</v>
       </c>
       <c r="E87">
-        <v>-0.04363053805381665</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.004151912673455077</v>
+      </c>
+      <c r="F87">
+        <v>-0.04084816001845961</v>
+      </c>
+      <c r="G87">
+        <v>0.06439207788032433</v>
+      </c>
+      <c r="H87">
+        <v>0.02667597308300496</v>
+      </c>
+      <c r="I87">
+        <v>0.03393962812348031</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06015085129214213</v>
+        <v>0.03160538042374745</v>
       </c>
       <c r="C88">
-        <v>-0.04519092065661148</v>
+        <v>-0.06854250514522704</v>
       </c>
       <c r="D88">
-        <v>-0.03328296830430121</v>
+        <v>-0.006997923483788076</v>
       </c>
       <c r="E88">
-        <v>-0.02955706231329055</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01427551396753525</v>
+      </c>
+      <c r="F88">
+        <v>-0.02160736542683879</v>
+      </c>
+      <c r="G88">
+        <v>0.0005196653208384471</v>
+      </c>
+      <c r="H88">
+        <v>0.0334818198351761</v>
+      </c>
+      <c r="I88">
+        <v>-0.04660250640023215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2961547947619287</v>
+        <v>0.410465562418041</v>
       </c>
       <c r="C89">
-        <v>0.3540282872281191</v>
+        <v>0.1721631170127951</v>
       </c>
       <c r="D89">
-        <v>-0.02897248687967039</v>
+        <v>-0.02764700778912466</v>
       </c>
       <c r="E89">
-        <v>-0.1011775023126475</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02535591632675877</v>
+      </c>
+      <c r="F89">
+        <v>-0.07566736862005218</v>
+      </c>
+      <c r="G89">
+        <v>0.0474896854091379</v>
+      </c>
+      <c r="H89">
+        <v>0.1488538015107781</v>
+      </c>
+      <c r="I89">
+        <v>0.3502686210654303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2357728067989957</v>
+        <v>0.3136407944897358</v>
       </c>
       <c r="C90">
-        <v>0.2596148444440173</v>
+        <v>0.1146287565980847</v>
       </c>
       <c r="D90">
-        <v>-0.03506919708293474</v>
+        <v>-0.03363372717502312</v>
       </c>
       <c r="E90">
-        <v>0.008850119523662615</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01551801271373315</v>
+      </c>
+      <c r="F90">
+        <v>0.0183308296303717</v>
+      </c>
+      <c r="G90">
+        <v>0.06245467513215815</v>
+      </c>
+      <c r="H90">
+        <v>-0.02407462453999949</v>
+      </c>
+      <c r="I90">
+        <v>-0.07965665981175483</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1675997428032625</v>
+        <v>0.07418464239684323</v>
       </c>
       <c r="C91">
-        <v>-0.1753362238738867</v>
+        <v>-0.2113648063388479</v>
       </c>
       <c r="D91">
-        <v>0.08872091533535895</v>
+        <v>0.10530519011656</v>
       </c>
       <c r="E91">
-        <v>-0.1006305982956237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0670307458012461</v>
+      </c>
+      <c r="F91">
+        <v>-0.06782551304941536</v>
+      </c>
+      <c r="G91">
+        <v>0.0130582342275196</v>
+      </c>
+      <c r="H91">
+        <v>0.0109088182211211</v>
+      </c>
+      <c r="I91">
+        <v>-0.118856347540475</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.218681123934584</v>
+        <v>0.3358956848242068</v>
       </c>
       <c r="C92">
-        <v>0.2759156765167468</v>
+        <v>0.1506728456704961</v>
       </c>
       <c r="D92">
-        <v>0.05032502224756224</v>
+        <v>0.003469074182662591</v>
       </c>
       <c r="E92">
-        <v>-0.05927378453941044</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.07455824207416875</v>
+      </c>
+      <c r="F92">
+        <v>-0.01849315268997996</v>
+      </c>
+      <c r="G92">
+        <v>0.03290241810633927</v>
+      </c>
+      <c r="H92">
+        <v>0.02620004541639848</v>
+      </c>
+      <c r="I92">
+        <v>0.166203212343011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2601604462249577</v>
+        <v>0.3331174509150838</v>
       </c>
       <c r="C93">
-        <v>0.2708865166910106</v>
+        <v>0.1219802399009812</v>
       </c>
       <c r="D93">
-        <v>-0.0164593601511814</v>
+        <v>0.01251893411897527</v>
       </c>
       <c r="E93">
-        <v>-0.005350563487657277</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02632541153208697</v>
+      </c>
+      <c r="F93">
+        <v>-0.01314611250251026</v>
+      </c>
+      <c r="G93">
+        <v>-0.01425510013324872</v>
+      </c>
+      <c r="H93">
+        <v>0.002323210259935037</v>
+      </c>
+      <c r="I93">
+        <v>-0.0972107857811942</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3131944201195714</v>
+        <v>0.1423179857008282</v>
       </c>
       <c r="C94">
-        <v>-0.2459717059641615</v>
+        <v>-0.354135472016198</v>
       </c>
       <c r="D94">
-        <v>0.3694437990815009</v>
+        <v>0.3459070291476459</v>
       </c>
       <c r="E94">
-        <v>0.1857668237655586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.04768081419948521</v>
+      </c>
+      <c r="F94">
+        <v>0.1113131946122495</v>
+      </c>
+      <c r="G94">
+        <v>0.3099472717611304</v>
+      </c>
+      <c r="H94">
+        <v>-0.04885356603332039</v>
+      </c>
+      <c r="I94">
+        <v>0.3883580345912883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01784702943627661</v>
+        <v>0.01890379603535377</v>
       </c>
       <c r="C95">
-        <v>-0.03628013010004973</v>
+        <v>-0.05950204854537207</v>
       </c>
       <c r="D95">
-        <v>-0.06363573553926502</v>
+        <v>-0.1104001881732241</v>
       </c>
       <c r="E95">
-        <v>-0.09836213763308742</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1903135884804523</v>
+      </c>
+      <c r="F95">
+        <v>0.07949560129148925</v>
+      </c>
+      <c r="G95">
+        <v>-0.1479282374511854</v>
+      </c>
+      <c r="H95">
+        <v>0.3646376466478121</v>
+      </c>
+      <c r="I95">
+        <v>0.5037620694124744</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001018491926613511</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001386909247287308</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.001106757573761344</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.001581415037895139</v>
+      </c>
+      <c r="F97">
+        <v>0.001476182159918598</v>
+      </c>
+      <c r="G97">
+        <v>-0.0007547635652055724</v>
+      </c>
+      <c r="H97">
+        <v>0.000817006987536314</v>
+      </c>
+      <c r="I97">
+        <v>0.0002662005243655986</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1530745702272106</v>
+        <v>0.1158612028463948</v>
       </c>
       <c r="C98">
-        <v>-0.06830839528576085</v>
+        <v>-0.1419246822501754</v>
       </c>
       <c r="D98">
-        <v>-0.1159533109880196</v>
+        <v>-0.05757825643442168</v>
       </c>
       <c r="E98">
-        <v>0.2061260913239647</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2685449661063745</v>
+      </c>
+      <c r="F98">
+        <v>0.1678488417516696</v>
+      </c>
+      <c r="G98">
+        <v>-0.2617023070147132</v>
+      </c>
+      <c r="H98">
+        <v>-0.1740856260311197</v>
+      </c>
+      <c r="I98">
+        <v>0.0415152067031805</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002038215241827655</v>
+        <v>-0.001702377970659291</v>
       </c>
       <c r="C101">
-        <v>-0.02192603199749871</v>
+        <v>-0.03057012921948828</v>
       </c>
       <c r="D101">
-        <v>-0.1012662602218972</v>
+        <v>-0.1015420076874825</v>
       </c>
       <c r="E101">
-        <v>-0.01020939395890438</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03845259680394906</v>
+      </c>
+      <c r="F101">
+        <v>-0.03443502261841789</v>
+      </c>
+      <c r="G101">
+        <v>-0.001744086987723548</v>
+      </c>
+      <c r="H101">
+        <v>0.1387248314440431</v>
+      </c>
+      <c r="I101">
+        <v>-0.01541432504613049</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1175484404550722</v>
+        <v>0.03632820002871086</v>
       </c>
       <c r="C102">
-        <v>-0.1468375286274074</v>
+        <v>-0.152659555750238</v>
       </c>
       <c r="D102">
-        <v>0.06798294921300284</v>
+        <v>0.09120924377134085</v>
       </c>
       <c r="E102">
-        <v>0.03668149423339443</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.02975238149780168</v>
+      </c>
+      <c r="F102">
+        <v>0.06750402935011843</v>
+      </c>
+      <c r="G102">
+        <v>-0.01221904339942869</v>
+      </c>
+      <c r="H102">
+        <v>0.05098274297163573</v>
+      </c>
+      <c r="I102">
+        <v>-0.01841089170079514</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
